--- a/data/trans_camb/P2A_psíq_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P2A_psíq_R-Habitat-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>0.548023096589175</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>1.278691118824068</v>
+        <v>1.278691118824069</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6510659897065374</v>
+        <v>0.5826980422376962</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.5866606057122401</v>
+        <v>-0.5636473556058146</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.5165552560457795</v>
+        <v>-0.5194342714127856</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.333324548313321</v>
+        <v>1.378535988651498</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.0914997812454962</v>
+        <v>-0.01009417705115255</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>1.103470411018361</v>
+        <v>1.212308649947305</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.248236329351872</v>
+        <v>1.229705653380611</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.114511784141104</v>
+        <v>-0.120097756184453</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.6193041430195606</v>
+        <v>0.5562777445613831</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.920612029936792</v>
+        <v>3.551439968537755</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.391633093510297</v>
+        <v>1.341518815652562</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.363483074610718</v>
+        <v>1.346953074520862</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.404104358345435</v>
+        <v>4.233983076495733</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.764425597500986</v>
+        <v>1.904792232151735</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.284976957794844</v>
+        <v>3.382850078454217</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.387978535477353</v>
+        <v>3.4321162643742</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.33083480907713</v>
+        <v>1.246258392427723</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.107433935417295</v>
+        <v>2.012493175031308</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.9627198785339025</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>2.246294665787637</v>
+        <v>2.246294665787638</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.2667739165564932</v>
+        <v>0.186018677917424</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.6180451619593075</v>
+        <v>-0.6270122718314808</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.5618782190841289</v>
+        <v>-0.5873390237892143</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.9310082491395327</v>
+        <v>1.287224605592255</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4329451148562655</v>
+        <v>-0.3513038748380093</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8591141164833062</v>
+        <v>0.7493387420407969</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>1.280515101789938</v>
+        <v>1.270730112335482</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1800631785549053</v>
+        <v>-0.1986912501654774</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.5227297260985445</v>
+        <v>0.4673932522087133</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>11.90586051534592</v>
+        <v>9.723540548748865</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>4.842993767994745</v>
+        <v>4.081289283043429</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>4.512870893410578</v>
+        <v>4.02158802083807</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>28.13885220586126</v>
+        <v>28.6717099885385</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>14.96120728593481</v>
+        <v>13.66524091546942</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>21.05231259544468</v>
+        <v>21.40125443617335</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>11.99954106621751</v>
+        <v>11.40407228771421</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>4.631294508683208</v>
+        <v>4.059493453512149</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>7.521253446832648</v>
+        <v>6.43428219627558</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>0.2092973197338095</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>1.136414547346792</v>
+        <v>1.136414547346793</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.8293193291872456</v>
+        <v>-0.688192452745884</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.191583688312979</v>
+        <v>-0.9965577368953356</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.4134378495839817</v>
+        <v>-0.4935370596065022</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.454054295463314</v>
+        <v>-0.397839236809553</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.6787362081775378</v>
+        <v>-0.7895429980826691</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.4488180828713966</v>
+        <v>0.5600546178570446</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.2916193158340269</v>
+        <v>-0.2488693082288216</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.5189981867981318</v>
+        <v>-0.4982783746525013</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3126754868498787</v>
+        <v>0.3471993754558925</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.226392325028459</v>
+        <v>1.395831943248911</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.024254457727814</v>
+        <v>1.114085667614826</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.899996526522747</v>
+        <v>1.86556716582759</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.780261022807268</v>
+        <v>1.752696429530626</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.483832735562616</v>
+        <v>1.477288949409455</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.706605609311546</v>
+        <v>2.748807707558524</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.249539219716482</v>
+        <v>1.189961053407921</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.926351024475867</v>
+        <v>1.060752725519545</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.942328765479484</v>
+        <v>1.959111417850408</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>0.1731699324686462</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.9402548999228374</v>
+        <v>0.9402548999228376</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4810456826905921</v>
+        <v>-0.4757480395243723</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.6391100895805772</v>
+        <v>-0.5822704178522449</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3044072365949625</v>
+        <v>-0.3009663076619139</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3134635467207272</v>
+        <v>-0.2936557339621861</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4144482909714046</v>
+        <v>-0.4986604251292621</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1312943357340162</v>
+        <v>0.2947841850772964</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2069114594716471</v>
+        <v>-0.1815027002683062</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3812842788701599</v>
+        <v>-0.3222520250150561</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.2006781586898885</v>
+        <v>0.2031314782621652</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.647179569746518</v>
+        <v>1.88963800717926</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.430502206540674</v>
+        <v>1.863971398097467</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.638707092395698</v>
+        <v>2.519157350206338</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.487262463251168</v>
+        <v>2.557074361843168</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.251566507196623</v>
+        <v>2.021584532678718</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>4.366749728530083</v>
+        <v>4.194985591512897</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.426755759921868</v>
+        <v>1.415167069476904</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.082906341818613</v>
+        <v>1.318553966564503</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>2.422806571758235</v>
+        <v>2.346764411570704</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-0.7509515662964924</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>1.647153218047248</v>
+        <v>1.647153218047249</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-0.08471371192804236</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.5480263720647306</v>
+        <v>-0.3704938102883492</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.078895411983313</v>
+        <v>-0.8317192980489468</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9460342643151934</v>
+        <v>1.139425351996465</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.064111065428843</v>
+        <v>-2.005641076438923</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.134046958526846</v>
+        <v>-2.103888219555655</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.181242272034584</v>
+        <v>-0.0001015408389021082</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.9215879160649547</v>
+        <v>-0.9416568598482737</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.173113427204105</v>
+        <v>-1.158548229294029</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.9964680930608526</v>
+        <v>1.040139335301905</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.695388846648986</v>
+        <v>1.75511443761574</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8344981404992976</v>
+        <v>0.9260311673701536</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.135416353523491</v>
+        <v>4.2663875560358</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3819533607077596</v>
+        <v>0.4958376694592875</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.4998942094467089</v>
+        <v>0.5379060595029658</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.311381509807189</v>
+        <v>3.272664647299576</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.7706465915912871</v>
+        <v>0.6345058676487809</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4591711587193829</v>
+        <v>0.4812272833435475</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.336119815787578</v>
+        <v>3.176086049854117</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.3985104314525404</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.8741012990087896</v>
+        <v>0.8741012990087901</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.06927252441234484</v>
@@ -1208,29 +1208,29 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.7436885730221331</v>
+        <v>-0.6637651225383734</v>
       </c>
       <c r="D20" s="6" t="inlineStr"/>
       <c r="E20" s="6" t="n">
-        <v>0.4598676038506194</v>
+        <v>0.3736889882804528</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.7586121649537733</v>
+        <v>-0.745237156424162</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.781930270993433</v>
+        <v>-0.7820915916887028</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1021843849926973</v>
+        <v>-0.02155701095386428</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.5649921934715507</v>
+        <v>-0.5685631692279614</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.6633642478517811</v>
+        <v>-0.6859256490508925</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.487895744938683</v>
+        <v>0.5517371362371818</v>
       </c>
     </row>
     <row r="21">
@@ -1240,30 +1240,28 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C21" s="6" t="n">
-        <v>11.05895404192381</v>
-      </c>
+      <c r="C21" s="6" t="inlineStr"/>
       <c r="D21" s="6" t="inlineStr"/>
       <c r="E21" s="6" t="n">
-        <v>23.06869261142532</v>
+        <v>22.69033355881486</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.3685159896704224</v>
+        <v>0.5241390383799345</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.5679390680794656</v>
+        <v>0.6463758108816833</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.830410051762172</v>
+        <v>3.067616045709686</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.012467185275838</v>
+        <v>0.804777095500782</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.6506604336365301</v>
+        <v>0.6253238247194678</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>4.107144167705767</v>
+        <v>3.910287168975013</v>
       </c>
     </row>
     <row r="22">
@@ -1284,7 +1282,7 @@
         <v>-0.1552115857079546</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1.963810197047946</v>
+        <v>1.963810197047945</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>1.223544217666363</v>
@@ -1302,7 +1300,7 @@
         <v>0.5072352291845904</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>2.040974770291304</v>
+        <v>2.040974770291305</v>
       </c>
     </row>
     <row r="23">
@@ -1313,31 +1311,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1568864395814748</v>
+        <v>0.1243787635996861</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.082879732154513</v>
+        <v>-0.9960342435130831</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.7214564737755249</v>
+        <v>0.7321611931356882</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.05574600681859002</v>
+        <v>0.1210790353554388</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.002703104914382335</v>
+        <v>-0.04515918742530523</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.9968733311956595</v>
+        <v>1.010544848314507</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.4469430543404466</v>
+        <v>0.4142362528011969</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.2448706682888431</v>
+        <v>-0.1974038699293493</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.188250224141866</v>
+        <v>1.224862199918825</v>
       </c>
     </row>
     <row r="24">
@@ -1348,31 +1346,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.804311522019286</v>
+        <v>2.629704570163038</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.7734429717091152</v>
+        <v>0.6763141825744003</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.350342701161591</v>
+        <v>3.357544088019703</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.433179381768957</v>
+        <v>2.570768272790413</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.559309408651449</v>
+        <v>2.480180555304833</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.312250411204344</v>
+        <v>3.297066317877603</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.136084294574568</v>
+        <v>2.137576793201096</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.284161425434581</v>
+        <v>1.293325226539454</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>3.005552804783287</v>
+        <v>2.942084214408605</v>
       </c>
     </row>
     <row r="25">
@@ -1407,7 +1405,7 @@
         <v>0.4704238125251637</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>1.892855774729129</v>
+        <v>1.89285577472913</v>
       </c>
     </row>
     <row r="26">
@@ -1418,31 +1416,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.006700560860783899</v>
+        <v>-0.0746810231067065</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.7348754557840194</v>
+        <v>-0.7241291482400219</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.3738903343807055</v>
+        <v>0.3800748602473757</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.03785769621086153</v>
+        <v>0.02967155647657828</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.03775301988897653</v>
+        <v>-0.121303545084247</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4701061507264763</v>
+        <v>0.5046129358924127</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2663451519281359</v>
+        <v>0.2176900117832119</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2063880327371397</v>
+        <v>-0.1669769440711582</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.7905312849158411</v>
+        <v>0.7251934409235768</v>
       </c>
     </row>
     <row r="27">
@@ -1453,31 +1451,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>5.111187687071729</v>
+        <v>4.838988279747519</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.828687387877622</v>
+        <v>1.505675342350223</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>6.523774430948508</v>
+        <v>6.146570032862642</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>3.289156581258506</v>
+        <v>3.54770505897016</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>3.60587576780408</v>
+        <v>3.237707828326189</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>4.399770135559098</v>
+        <v>5.007926361326597</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>2.692146287691946</v>
+        <v>2.678525585299481</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.690689844578141</v>
+        <v>1.646801449288657</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>3.861060524955006</v>
+        <v>3.732747432317456</v>
       </c>
     </row>
     <row r="28">
@@ -1498,7 +1496,7 @@
         <v>0.0321494777275293</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1.387898270262616</v>
+        <v>1.387898270262615</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>0.9174812925105629</v>
@@ -1527,31 +1525,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.3365591547760729</v>
+        <v>0.3671717937326975</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.4657806298345618</v>
+        <v>-0.4869755654157078</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.7422289405625032</v>
+        <v>0.7326969500821252</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.3240988114895507</v>
+        <v>0.2497726612809422</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.09823454458407373</v>
+        <v>-0.1204629261842433</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>1.264420201297942</v>
+        <v>1.241655223613519</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.4954359198848563</v>
+        <v>0.4720955086377774</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.1580834171469775</v>
+        <v>-0.1590177192944769</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>1.221437621988351</v>
+        <v>1.229073913584931</v>
       </c>
     </row>
     <row r="30">
@@ -1562,31 +1560,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.548772870854975</v>
+        <v>1.606231263633577</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.5660880052937785</v>
+        <v>0.5013882664974337</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.086535504701037</v>
+        <v>2.034523063986398</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.552831436118734</v>
+        <v>1.519130614693895</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.022063810025235</v>
+        <v>0.9921712371960484</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>2.497017917302322</v>
+        <v>2.485666037210346</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>1.32441114395738</v>
+        <v>1.356771695483335</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.594720356617075</v>
+        <v>0.6333590360448057</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>2.075037248103896</v>
+        <v>2.109160522566563</v>
       </c>
     </row>
     <row r="31">
@@ -1632,31 +1630,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.2297309727587087</v>
+        <v>0.2858458684967111</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.4084957792821344</v>
+        <v>-0.4153193526092069</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.5781465654683897</v>
+        <v>0.5864366235409936</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.2169945788355441</v>
+        <v>0.1403086720859903</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.0745967232233759</v>
+        <v>-0.08383364146650064</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8265520947998213</v>
+        <v>0.8106577504515844</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4007700987428938</v>
+        <v>0.3769668569266409</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.1336904475930313</v>
+        <v>-0.1235072897418417</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.9395694900892014</v>
+        <v>1.016606148653925</v>
       </c>
     </row>
     <row r="33">
@@ -1667,31 +1665,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>2.258587563287703</v>
+        <v>2.404356265737824</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.887176880499608</v>
+        <v>0.7287825914619346</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>3.090925616396044</v>
+        <v>2.989531686834448</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.726155267859249</v>
+        <v>1.667572931890311</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.15210933292088</v>
+        <v>1.043769026531713</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>2.743192848556267</v>
+        <v>2.755352873747372</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.574305963787332</v>
+        <v>1.585285489965642</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.6721200890437954</v>
+        <v>0.737279199669602</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>2.371290258740879</v>
+        <v>2.486022943208897</v>
       </c>
     </row>
     <row r="34">
